--- a/biology/Médecine/Giemsa/Giemsa.xlsx
+++ b/biology/Médecine/Giemsa/Giemsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le giemsa est un colorant spécifique des chromosomes, constitué d'un mélange de deux colorants (bleu de méthylène et éosine) rose violacé. Le giemsa permet notamment de mettre en évidence les territoires chromosomiques.
-Gustav Giemsa (en) (1867 – 1948) était à la fois chimiste et pharmacien. C'est dans les années 1900 qu'il développe la technique de coloration qui fut utile pour identifier dans les frottis sanguins le parasite de la malaria, Plasmodium falciparum[1],[2].
+Gustav Giemsa (en) (1867 – 1948) était à la fois chimiste et pharmacien. C'est dans les années 1900 qu'il développe la technique de coloration qui fut utile pour identifier dans les frottis sanguins le parasite de la malaria, Plasmodium falciparum,.
 On effectue cette coloration en général sur des leucocytes traité chimiquement pour stimuler la mitose, qui est ensuite bloquée au niveau de la métaphase par la colchicine. On réalise alors la lyse hypotonique des cellules pour récupérer les chromosomes métaphasiques et les colorer.
 On distingue plusieurs types de coloration. La coloration Giemsa par dénaturation enzymatique par la trypsine (ou GTG banding) met en évidence des bandes dites bandes G. La coloration par dénaturation thermique à 87 °C (ou RHG banding, pour Reverse banding using Heat and Giemsa) colore des bandes dites « bandes R ». Les bandes G sont particulièrement riches en adénine et en thymine, tandis que les bandes R sont riches en guanine et cytosine.
 </t>
